--- a/biology/Zoologie/Demi-sang_arabe/Demi-sang_arabe.xlsx
+++ b/biology/Zoologie/Demi-sang_arabe/Demi-sang_arabe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un demi-sang arabe est un cheval ayant des origines Arabe attestées, généralement plus de 25 %, ou plus de 50 %, selon les réglementations concernées.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, les chevaux n'étant pas des Pur-sang arabes n'ont longtemps eu aucune reconnaissance de race. Le stud-book du Demi-sang arabe est créé en 2006[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les chevaux n'étant pas des Pur-sang arabes n'ont longtemps eu aucune reconnaissance de race. Le stud-book du Demi-sang arabe est créé en 2006
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sélection
-En France, le registre du Demi-sang arabe accepte les chevaux ayant au moins 50 % d'origines Arabe connues[2].
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le registre du Demi-sang arabe accepte les chevaux ayant au moins 50 % d'origines Arabe connues.
 </t>
         </is>
       </c>
@@ -575,7 +594,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le DSA est particulièrement adapté à la pratique de l'endurance. 
 </t>
@@ -607,6 +628,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
